--- a/metrics/bm.xlsx
+++ b/metrics/bm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Amey/Documents/GitHub/project-g3t4/metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BE1515-DDA6-5942-A795-8D165399CFB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C50EDA-EC23-DB4D-91E6-8166CFA980CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bug Metrics" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>Bug Log</t>
   </si>
@@ -558,6 +558,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,9 +572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,16 +924,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1016,10 +1016,10 @@
       <c r="F3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="40">
         <v>9</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="42" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="18"/>
@@ -1060,8 +1060,8 @@
       <c r="F4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -1100,8 +1100,8 @@
       <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -1140,8 +1140,8 @@
       <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
@@ -1180,8 +1180,8 @@
       <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1220,8 +1220,8 @@
       <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1260,8 +1260,8 @@
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1300,8 +1300,8 @@
       <c r="F10" s="16">
         <v>1</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1340,8 +1340,8 @@
       <c r="F11" s="16">
         <v>1</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -29227,8 +29227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="168" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="168" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -29244,16 +29244,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -29895,17 +29895,21 @@
       <c r="C16" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="36" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F16" s="32">
         <v>43747</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="32">
+        <v>43748</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>48</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
